--- a/StructureDefinition-IllTravelerBundle.xlsx
+++ b/StructureDefinition-IllTravelerBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T14:30:36-05:00</t>
+    <t>2024-01-05T10:12:51-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -987,7 +987,7 @@
     <t>Traveler Info</t>
   </si>
   <si>
-    <t>Information about the travler who is sick</t>
+    <t>Information about the traveler who is sick</t>
   </si>
   <si>
     <t>Bundle.entry:TravelerInfo.id</t>
@@ -18533,7 +18533,7 @@
         <v>85</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L149" t="s" s="2">
         <v>183</v>

--- a/StructureDefinition-IllTravelerBundle.xlsx
+++ b/StructureDefinition-IllTravelerBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-05T10:12:51-05:00</t>
+    <t>2024-01-12T16:11:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-IllTravelerBundle.xlsx
+++ b/StructureDefinition-IllTravelerBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T16:11:38-05:00</t>
+    <t>2024-01-14T20:25:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-IllTravelerBundle.xlsx
+++ b/StructureDefinition-IllTravelerBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-14T20:25:13-05:00</t>
+    <t>2024-01-15T21:15:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-IllTravelerBundle.xlsx
+++ b/StructureDefinition-IllTravelerBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:15:59-05:00</t>
+    <t>2024-01-15T21:38:02-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-IllTravelerBundle.xlsx
+++ b/StructureDefinition-IllTravelerBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:38:02-05:00</t>
+    <t>2024-01-17T11:35:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-IllTravelerBundle.xlsx
+++ b/StructureDefinition-IllTravelerBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T11:35:10-05:00</t>
+    <t>2024-02-16T13:20:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
